--- a/codigo/axisimetrico/boussinesq.xlsx
+++ b/codigo/axisimetrico/boussinesq.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="xnod" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="LaG" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="LaG_mat" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="restric" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="carga_distr" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="carga_punt" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="idx_superior" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="prop_mat" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="idx_superior" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -221,8 +222,44 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">kg/m^3</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t xml:space="preserve">nodo</t>
   </si>
@@ -260,6 +297,9 @@
     <t xml:space="preserve">NL8</t>
   </si>
   <si>
+    <t xml:space="preserve">material</t>
+  </si>
+  <si>
     <t xml:space="preserve">dirección</t>
   </si>
   <si>
@@ -292,15 +332,25 @@
   <si>
     <t xml:space="preserve">fuerza puntual</t>
   </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -332,6 +382,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -396,13 +453,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -418,6 +479,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -500,14 +569,14 @@
   </sheetPr>
   <dimension ref="A1:C1154"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.7857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.234693877551"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.68367346938776"/>
   </cols>
   <sheetData>
@@ -14374,10 +14443,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I361"/>
+  <dimension ref="A1:J361"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A274" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K296" activeCellId="0" sqref="K296"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14421,6 +14490,9 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -14449,6 +14521,9 @@
       </c>
       <c r="I2" s="0" t="n">
         <v>473</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14480,6 +14555,9 @@
       <c r="I3" s="0" t="n">
         <v>477</v>
       </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -14510,6 +14588,9 @@
       <c r="I4" s="0" t="n">
         <v>480</v>
       </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -14540,6 +14621,9 @@
       <c r="I5" s="0" t="n">
         <v>483</v>
       </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -14570,6 +14654,9 @@
       <c r="I6" s="0" t="n">
         <v>487</v>
       </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -14600,6 +14687,9 @@
       <c r="I7" s="0" t="n">
         <v>491</v>
       </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -14630,6 +14720,9 @@
       <c r="I8" s="0" t="n">
         <v>495</v>
       </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -14660,6 +14753,9 @@
       <c r="I9" s="0" t="n">
         <v>499</v>
       </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -14690,6 +14786,9 @@
       <c r="I10" s="0" t="n">
         <v>503</v>
       </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -14720,6 +14819,9 @@
       <c r="I11" s="0" t="n">
         <v>507</v>
       </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -14750,6 +14852,9 @@
       <c r="I12" s="0" t="n">
         <v>511</v>
       </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -14780,6 +14885,9 @@
       <c r="I13" s="0" t="n">
         <v>515</v>
       </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -14810,6 +14918,9 @@
       <c r="I14" s="0" t="n">
         <v>519</v>
       </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -14840,6 +14951,9 @@
       <c r="I15" s="0" t="n">
         <v>522</v>
       </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -14858,17 +14972,20 @@
       <c r="E16" s="0" t="n">
         <v>524</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="3" t="n">
         <v>88</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="3" t="n">
         <v>63</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>525</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14900,6 +15017,9 @@
       <c r="I17" s="0" t="n">
         <v>528</v>
       </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -14930,6 +15050,9 @@
       <c r="I18" s="0" t="n">
         <v>532</v>
       </c>
+      <c r="J18" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -14960,6 +15083,9 @@
       <c r="I19" s="0" t="n">
         <v>536</v>
       </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -14990,6 +15116,9 @@
       <c r="I20" s="0" t="n">
         <v>540</v>
       </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -15020,6 +15149,9 @@
       <c r="I21" s="0" t="n">
         <v>544</v>
       </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -15050,6 +15182,9 @@
       <c r="I22" s="0" t="n">
         <v>546</v>
       </c>
+      <c r="J22" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -15080,6 +15215,9 @@
       <c r="I23" s="0" t="n">
         <v>550</v>
       </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -15110,6 +15248,9 @@
       <c r="I24" s="0" t="n">
         <v>554</v>
       </c>
+      <c r="J24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -15140,6 +15281,9 @@
       <c r="I25" s="0" t="n">
         <v>558</v>
       </c>
+      <c r="J25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -15170,6 +15314,9 @@
       <c r="I26" s="0" t="n">
         <v>562</v>
       </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -15200,6 +15347,9 @@
       <c r="I27" s="0" t="n">
         <v>566</v>
       </c>
+      <c r="J27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -15230,6 +15380,9 @@
       <c r="I28" s="0" t="n">
         <v>570</v>
       </c>
+      <c r="J28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -15260,6 +15413,9 @@
       <c r="I29" s="0" t="n">
         <v>574</v>
       </c>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -15290,6 +15446,9 @@
       <c r="I30" s="0" t="n">
         <v>578</v>
       </c>
+      <c r="J30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -15320,6 +15479,9 @@
       <c r="I31" s="0" t="n">
         <v>490</v>
       </c>
+      <c r="J31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -15350,6 +15512,9 @@
       <c r="I32" s="0" t="n">
         <v>585</v>
       </c>
+      <c r="J32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -15380,6 +15545,9 @@
       <c r="I33" s="0" t="n">
         <v>589</v>
       </c>
+      <c r="J33" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -15410,6 +15578,9 @@
       <c r="I34" s="0" t="n">
         <v>592</v>
       </c>
+      <c r="J34" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -15440,6 +15611,9 @@
       <c r="I35" s="0" t="n">
         <v>595</v>
       </c>
+      <c r="J35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -15470,6 +15644,9 @@
       <c r="I36" s="0" t="n">
         <v>597</v>
       </c>
+      <c r="J36" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -15500,6 +15677,9 @@
       <c r="I37" s="0" t="n">
         <v>599</v>
       </c>
+      <c r="J37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -15530,6 +15710,9 @@
       <c r="I38" s="0" t="n">
         <v>574</v>
       </c>
+      <c r="J38" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -15560,6 +15743,9 @@
       <c r="I39" s="0" t="n">
         <v>605</v>
       </c>
+      <c r="J39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
@@ -15590,6 +15776,9 @@
       <c r="I40" s="0" t="n">
         <v>609</v>
       </c>
+      <c r="J40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
@@ -15620,6 +15809,9 @@
       <c r="I41" s="0" t="n">
         <v>613</v>
       </c>
+      <c r="J41" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -15650,6 +15842,9 @@
       <c r="I42" s="0" t="n">
         <v>617</v>
       </c>
+      <c r="J42" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
@@ -15680,6 +15875,9 @@
       <c r="I43" s="0" t="n">
         <v>620</v>
       </c>
+      <c r="J43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
@@ -15710,6 +15908,9 @@
       <c r="I44" s="0" t="n">
         <v>70</v>
       </c>
+      <c r="J44" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
@@ -15740,6 +15941,9 @@
       <c r="I45" s="0" t="n">
         <v>626</v>
       </c>
+      <c r="J45" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
@@ -15770,6 +15974,9 @@
       <c r="I46" s="0" t="n">
         <v>630</v>
       </c>
+      <c r="J46" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
@@ -15800,6 +16007,9 @@
       <c r="I47" s="0" t="n">
         <v>633</v>
       </c>
+      <c r="J47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
@@ -15830,6 +16040,9 @@
       <c r="I48" s="0" t="n">
         <v>636</v>
       </c>
+      <c r="J48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
@@ -15860,6 +16073,9 @@
       <c r="I49" s="0" t="n">
         <v>640</v>
       </c>
+      <c r="J49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
@@ -15890,6 +16106,9 @@
       <c r="I50" s="0" t="n">
         <v>637</v>
       </c>
+      <c r="J50" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
@@ -15920,6 +16139,9 @@
       <c r="I51" s="0" t="n">
         <v>645</v>
       </c>
+      <c r="J51" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
@@ -15950,6 +16172,9 @@
       <c r="I52" s="0" t="n">
         <v>648</v>
       </c>
+      <c r="J52" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
@@ -15980,6 +16205,9 @@
       <c r="I53" s="0" t="n">
         <v>652</v>
       </c>
+      <c r="J53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
@@ -16010,6 +16238,9 @@
       <c r="I54" s="0" t="n">
         <v>504</v>
       </c>
+      <c r="J54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
@@ -16040,6 +16271,9 @@
       <c r="I55" s="0" t="n">
         <v>655</v>
       </c>
+      <c r="J55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
@@ -16070,6 +16304,9 @@
       <c r="I56" s="0" t="n">
         <v>657</v>
       </c>
+      <c r="J56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
@@ -16100,6 +16337,9 @@
       <c r="I57" s="0" t="n">
         <v>638</v>
       </c>
+      <c r="J57" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
@@ -16130,6 +16370,9 @@
       <c r="I58" s="0" t="n">
         <v>627</v>
       </c>
+      <c r="J58" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
@@ -16160,6 +16403,9 @@
       <c r="I59" s="0" t="n">
         <v>664</v>
       </c>
+      <c r="J59" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -16190,6 +16436,9 @@
       <c r="I60" s="0" t="n">
         <v>667</v>
       </c>
+      <c r="J60" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
@@ -16220,6 +16469,9 @@
       <c r="I61" s="0" t="n">
         <v>670</v>
       </c>
+      <c r="J61" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
@@ -16250,6 +16502,9 @@
       <c r="I62" s="0" t="n">
         <v>576</v>
       </c>
+      <c r="J62" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
@@ -16280,6 +16535,9 @@
       <c r="I63" s="0" t="n">
         <v>675</v>
       </c>
+      <c r="J63" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
@@ -16310,6 +16568,9 @@
       <c r="I64" s="0" t="n">
         <v>679</v>
       </c>
+      <c r="J64" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
@@ -16340,6 +16601,9 @@
       <c r="I65" s="0" t="n">
         <v>683</v>
       </c>
+      <c r="J65" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
@@ -16370,6 +16634,9 @@
       <c r="I66" s="0" t="n">
         <v>686</v>
       </c>
+      <c r="J66" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
@@ -16400,6 +16667,9 @@
       <c r="I67" s="0" t="n">
         <v>652</v>
       </c>
+      <c r="J67" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
@@ -16430,6 +16700,9 @@
       <c r="I68" s="0" t="n">
         <v>692</v>
       </c>
+      <c r="J68" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
@@ -16460,6 +16733,9 @@
       <c r="I69" s="0" t="n">
         <v>696</v>
       </c>
+      <c r="J69" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
@@ -16490,6 +16766,9 @@
       <c r="I70" s="0" t="n">
         <v>698</v>
       </c>
+      <c r="J70" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
@@ -16520,6 +16799,9 @@
       <c r="I71" s="0" t="n">
         <v>701</v>
       </c>
+      <c r="J71" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
@@ -16550,6 +16832,9 @@
       <c r="I72" s="0" t="n">
         <v>705</v>
       </c>
+      <c r="J72" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
@@ -16580,6 +16865,9 @@
       <c r="I73" s="0" t="n">
         <v>582</v>
       </c>
+      <c r="J73" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
@@ -16610,6 +16898,9 @@
       <c r="I74" s="0" t="n">
         <v>589</v>
       </c>
+      <c r="J74" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
@@ -16640,6 +16931,9 @@
       <c r="I75" s="0" t="n">
         <v>714</v>
       </c>
+      <c r="J75" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
@@ -16670,6 +16964,9 @@
       <c r="I76" s="0" t="n">
         <v>718</v>
       </c>
+      <c r="J76" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
@@ -16700,6 +16997,9 @@
       <c r="I77" s="0" t="n">
         <v>721</v>
       </c>
+      <c r="J77" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
@@ -16730,6 +17030,9 @@
       <c r="I78" s="0" t="n">
         <v>40</v>
       </c>
+      <c r="J78" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
@@ -16760,6 +17063,9 @@
       <c r="I79" s="0" t="n">
         <v>728</v>
       </c>
+      <c r="J79" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
@@ -16790,6 +17096,9 @@
       <c r="I80" s="0" t="n">
         <v>725</v>
       </c>
+      <c r="J80" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
@@ -16820,6 +17129,9 @@
       <c r="I81" s="0" t="n">
         <v>505</v>
       </c>
+      <c r="J81" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
@@ -16850,6 +17162,9 @@
       <c r="I82" s="0" t="n">
         <v>735</v>
       </c>
+      <c r="J82" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
@@ -16880,6 +17195,9 @@
       <c r="I83" s="0" t="n">
         <v>737</v>
       </c>
+      <c r="J83" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
@@ -16910,6 +17228,9 @@
       <c r="I84" s="0" t="n">
         <v>739</v>
       </c>
+      <c r="J84" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
@@ -16940,6 +17261,9 @@
       <c r="I85" s="0" t="n">
         <v>680</v>
       </c>
+      <c r="J85" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
@@ -16970,6 +17294,9 @@
       <c r="I86" s="0" t="n">
         <v>745</v>
       </c>
+      <c r="J86" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
@@ -17000,6 +17327,9 @@
       <c r="I87" s="0" t="n">
         <v>635</v>
       </c>
+      <c r="J87" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
@@ -17030,6 +17360,9 @@
       <c r="I88" s="0" t="n">
         <v>586</v>
       </c>
+      <c r="J88" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
@@ -17060,6 +17393,9 @@
       <c r="I89" s="0" t="n">
         <v>751</v>
       </c>
+      <c r="J89" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
@@ -17090,6 +17426,9 @@
       <c r="I90" s="0" t="n">
         <v>754</v>
       </c>
+      <c r="J90" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
@@ -17120,6 +17459,9 @@
       <c r="I91" s="0" t="n">
         <v>758</v>
       </c>
+      <c r="J91" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
@@ -17150,6 +17492,9 @@
       <c r="I92" s="0" t="n">
         <v>760</v>
       </c>
+      <c r="J92" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
@@ -17180,6 +17525,9 @@
       <c r="I93" s="0" t="n">
         <v>471</v>
       </c>
+      <c r="J93" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
@@ -17210,6 +17558,9 @@
       <c r="I94" s="0" t="n">
         <v>764</v>
       </c>
+      <c r="J94" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
@@ -17240,6 +17591,9 @@
       <c r="I95" s="0" t="n">
         <v>766</v>
       </c>
+      <c r="J95" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
@@ -17270,6 +17624,9 @@
       <c r="I96" s="0" t="n">
         <v>129</v>
       </c>
+      <c r="J96" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
@@ -17300,6 +17657,9 @@
       <c r="I97" s="0" t="n">
         <v>770</v>
       </c>
+      <c r="J97" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
@@ -17330,6 +17690,9 @@
       <c r="I98" s="0" t="n">
         <v>697</v>
       </c>
+      <c r="J98" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
@@ -17360,6 +17723,9 @@
       <c r="I99" s="0" t="n">
         <v>775</v>
       </c>
+      <c r="J99" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
@@ -17390,6 +17756,9 @@
       <c r="I100" s="0" t="n">
         <v>778</v>
       </c>
+      <c r="J100" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
@@ -17420,6 +17789,9 @@
       <c r="I101" s="0" t="n">
         <v>687</v>
       </c>
+      <c r="J101" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
@@ -17450,6 +17822,9 @@
       <c r="I102" s="0" t="n">
         <v>774</v>
       </c>
+      <c r="J102" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
@@ -17480,6 +17855,9 @@
       <c r="I103" s="0" t="n">
         <v>785</v>
       </c>
+      <c r="J103" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
@@ -17510,6 +17888,9 @@
       <c r="I104" s="0" t="n">
         <v>787</v>
       </c>
+      <c r="J104" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
@@ -17540,6 +17921,9 @@
       <c r="I105" s="0" t="n">
         <v>771</v>
       </c>
+      <c r="J105" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
@@ -17570,6 +17954,9 @@
       <c r="I106" s="0" t="n">
         <v>757</v>
       </c>
+      <c r="J106" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
@@ -17600,6 +17987,9 @@
       <c r="I107" s="0" t="n">
         <v>698</v>
       </c>
+      <c r="J107" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
@@ -17630,6 +18020,9 @@
       <c r="I108" s="0" t="n">
         <v>551</v>
       </c>
+      <c r="J108" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
@@ -17660,6 +18053,9 @@
       <c r="I109" s="0" t="n">
         <v>527</v>
       </c>
+      <c r="J109" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
@@ -17690,6 +18086,9 @@
       <c r="I110" s="0" t="n">
         <v>611</v>
       </c>
+      <c r="J110" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
@@ -17720,6 +18119,9 @@
       <c r="I111" s="0" t="n">
         <v>552</v>
       </c>
+      <c r="J111" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
@@ -17750,6 +18152,9 @@
       <c r="I112" s="0" t="n">
         <v>804</v>
       </c>
+      <c r="J112" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
@@ -17780,6 +18185,9 @@
       <c r="I113" s="0" t="n">
         <v>807</v>
       </c>
+      <c r="J113" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
@@ -17810,6 +18218,9 @@
       <c r="I114" s="0" t="n">
         <v>603</v>
       </c>
+      <c r="J114" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
@@ -17840,6 +18251,9 @@
       <c r="I115" s="0" t="n">
         <v>813</v>
       </c>
+      <c r="J115" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
@@ -17870,6 +18284,9 @@
       <c r="I116" s="0" t="n">
         <v>804</v>
       </c>
+      <c r="J116" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
@@ -17900,6 +18317,9 @@
       <c r="I117" s="0" t="n">
         <v>817</v>
       </c>
+      <c r="J117" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
@@ -17930,6 +18350,9 @@
       <c r="I118" s="0" t="n">
         <v>782</v>
       </c>
+      <c r="J118" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
@@ -17960,6 +18383,9 @@
       <c r="I119" s="0" t="n">
         <v>822</v>
       </c>
+      <c r="J119" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
@@ -17990,6 +18416,9 @@
       <c r="I120" s="0" t="n">
         <v>528</v>
       </c>
+      <c r="J120" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
@@ -18020,6 +18449,9 @@
       <c r="I121" s="0" t="n">
         <v>823</v>
       </c>
+      <c r="J121" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
@@ -18050,6 +18482,9 @@
       <c r="I122" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="J122" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
@@ -18080,6 +18515,9 @@
       <c r="I123" s="0" t="n">
         <v>719</v>
       </c>
+      <c r="J123" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
@@ -18110,6 +18548,9 @@
       <c r="I124" s="0" t="n">
         <v>827</v>
       </c>
+      <c r="J124" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
@@ -18140,6 +18581,9 @@
       <c r="I125" s="0" t="n">
         <v>830</v>
       </c>
+      <c r="J125" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
@@ -18170,6 +18614,9 @@
       <c r="I126" s="0" t="n">
         <v>581</v>
       </c>
+      <c r="J126" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
@@ -18200,6 +18647,9 @@
       <c r="I127" s="0" t="n">
         <v>679</v>
       </c>
+      <c r="J127" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
@@ -18230,6 +18680,9 @@
       <c r="I128" s="0" t="n">
         <v>837</v>
       </c>
+      <c r="J128" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
@@ -18260,6 +18713,9 @@
       <c r="I129" s="0" t="n">
         <v>778</v>
       </c>
+      <c r="J129" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
@@ -18290,13 +18746,16 @@
       <c r="I130" s="0" t="n">
         <v>842</v>
       </c>
+      <c r="J130" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <f aca="false">A130+1</f>
         <v>130</v>
       </c>
-      <c r="B131" s="2" t="n">
+      <c r="B131" s="3" t="n">
         <v>64</v>
       </c>
       <c r="C131" s="0" t="n">
@@ -18314,11 +18773,14 @@
       <c r="G131" s="0" t="n">
         <v>525</v>
       </c>
-      <c r="H131" s="2" t="n">
+      <c r="H131" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="I131" s="2" t="n">
+      <c r="I131" s="3" t="n">
         <v>89</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18350,19 +18812,22 @@
       <c r="I132" s="0" t="n">
         <v>779</v>
       </c>
+      <c r="J132" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <f aca="false">A132+1</f>
         <v>132</v>
       </c>
-      <c r="B133" s="2" t="n">
+      <c r="B133" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="C133" s="2" t="n">
+      <c r="C133" s="3" t="n">
         <v>91</v>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" s="3" t="n">
         <v>66</v>
       </c>
       <c r="E133" s="0" t="n">
@@ -18379,6 +18844,9 @@
       </c>
       <c r="I133" s="0" t="n">
         <v>847</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18410,6 +18878,9 @@
       <c r="I134" s="0" t="n">
         <v>121</v>
       </c>
+      <c r="J134" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
@@ -18440,6 +18911,9 @@
       <c r="I135" s="0" t="n">
         <v>853</v>
       </c>
+      <c r="J135" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
@@ -18470,6 +18944,9 @@
       <c r="I136" s="0" t="n">
         <v>856</v>
       </c>
+      <c r="J136" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
@@ -18500,6 +18977,9 @@
       <c r="I137" s="0" t="n">
         <v>859</v>
       </c>
+      <c r="J137" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
@@ -18530,6 +19010,9 @@
       <c r="I138" s="0" t="n">
         <v>673</v>
       </c>
+      <c r="J138" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
@@ -18560,6 +19043,9 @@
       <c r="I139" s="0" t="n">
         <v>623</v>
       </c>
+      <c r="J139" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
@@ -18590,6 +19076,9 @@
       <c r="I140" s="0" t="n">
         <v>865</v>
       </c>
+      <c r="J140" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
@@ -18620,6 +19109,9 @@
       <c r="I141" s="0" t="n">
         <v>868</v>
       </c>
+      <c r="J141" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
@@ -18650,6 +19142,9 @@
       <c r="I142" s="0" t="n">
         <v>871</v>
       </c>
+      <c r="J142" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
@@ -18680,6 +19175,9 @@
       <c r="I143" s="0" t="n">
         <v>558</v>
       </c>
+      <c r="J143" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
@@ -18710,6 +19208,9 @@
       <c r="I144" s="0" t="n">
         <v>876</v>
       </c>
+      <c r="J144" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
@@ -18740,6 +19241,9 @@
       <c r="I145" s="0" t="n">
         <v>759</v>
       </c>
+      <c r="J145" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
@@ -18770,6 +19274,9 @@
       <c r="I146" s="0" t="n">
         <v>751</v>
       </c>
+      <c r="J146" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
@@ -18800,6 +19307,9 @@
       <c r="I147" s="0" t="n">
         <v>881</v>
       </c>
+      <c r="J147" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
@@ -18830,6 +19340,9 @@
       <c r="I148" s="0" t="n">
         <v>642</v>
       </c>
+      <c r="J148" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
@@ -18860,6 +19373,9 @@
       <c r="I149" s="0" t="n">
         <v>884</v>
       </c>
+      <c r="J149" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
@@ -18890,6 +19406,9 @@
       <c r="I150" s="0" t="n">
         <v>718</v>
       </c>
+      <c r="J150" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
@@ -18920,6 +19439,9 @@
       <c r="I151" s="0" t="n">
         <v>655</v>
       </c>
+      <c r="J151" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
@@ -18950,6 +19472,9 @@
       <c r="I152" s="0" t="n">
         <v>891</v>
       </c>
+      <c r="J152" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
@@ -18980,6 +19505,9 @@
       <c r="I153" s="0" t="n">
         <v>678</v>
       </c>
+      <c r="J153" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
@@ -19010,6 +19538,9 @@
       <c r="I154" s="0" t="n">
         <v>786</v>
       </c>
+      <c r="J154" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
@@ -19040,6 +19571,9 @@
       <c r="I155" s="0" t="n">
         <v>585</v>
       </c>
+      <c r="J155" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
@@ -19070,6 +19604,9 @@
       <c r="I156" s="0" t="n">
         <v>620</v>
       </c>
+      <c r="J156" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
@@ -19100,6 +19637,9 @@
       <c r="I157" s="0" t="n">
         <v>599</v>
       </c>
+      <c r="J157" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
@@ -19130,6 +19670,9 @@
       <c r="I158" s="0" t="n">
         <v>902</v>
       </c>
+      <c r="J158" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
@@ -19160,6 +19703,9 @@
       <c r="I159" s="0" t="n">
         <v>899</v>
       </c>
+      <c r="J159" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
@@ -19190,6 +19736,9 @@
       <c r="I160" s="0" t="n">
         <v>538</v>
       </c>
+      <c r="J160" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
@@ -19220,6 +19769,9 @@
       <c r="I161" s="0" t="n">
         <v>564</v>
       </c>
+      <c r="J161" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
@@ -19250,6 +19802,9 @@
       <c r="I162" s="0" t="n">
         <v>793</v>
       </c>
+      <c r="J162" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
@@ -19280,6 +19835,9 @@
       <c r="I163" s="0" t="n">
         <v>913</v>
       </c>
+      <c r="J163" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
@@ -19310,6 +19868,9 @@
       <c r="I164" s="0" t="n">
         <v>675</v>
       </c>
+      <c r="J164" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
@@ -19340,6 +19901,9 @@
       <c r="I165" s="0" t="n">
         <v>587</v>
       </c>
+      <c r="J165" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
@@ -19370,6 +19934,9 @@
       <c r="I166" s="0" t="n">
         <v>746</v>
       </c>
+      <c r="J166" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
@@ -19400,19 +19967,22 @@
       <c r="I167" s="0" t="n">
         <v>921</v>
       </c>
+      <c r="J167" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
         <f aca="false">A167+1</f>
         <v>167</v>
       </c>
-      <c r="B168" s="2" t="n">
+      <c r="B168" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="C168" s="2" t="n">
+      <c r="C168" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="D168" s="2" t="n">
+      <c r="D168" s="3" t="n">
         <v>4</v>
       </c>
       <c r="E168" s="0" t="n">
@@ -19429,6 +19999,9 @@
       </c>
       <c r="I168" s="0" t="n">
         <v>923</v>
+      </c>
+      <c r="J168" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19460,6 +20033,9 @@
       <c r="I169" s="0" t="n">
         <v>487</v>
       </c>
+      <c r="J169" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
@@ -19490,6 +20066,9 @@
       <c r="I170" s="0" t="n">
         <v>925</v>
       </c>
+      <c r="J170" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
@@ -19520,6 +20099,9 @@
       <c r="I171" s="0" t="n">
         <v>928</v>
       </c>
+      <c r="J171" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
@@ -19550,6 +20132,9 @@
       <c r="I172" s="0" t="n">
         <v>930</v>
       </c>
+      <c r="J172" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
@@ -19580,6 +20165,9 @@
       <c r="I173" s="0" t="n">
         <v>507</v>
       </c>
+      <c r="J173" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
@@ -19610,6 +20198,9 @@
       <c r="I174" s="0" t="n">
         <v>696</v>
       </c>
+      <c r="J174" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
@@ -19640,6 +20231,9 @@
       <c r="I175" s="0" t="n">
         <v>633</v>
       </c>
+      <c r="J175" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
@@ -19670,6 +20264,9 @@
       <c r="I176" s="0" t="n">
         <v>936</v>
       </c>
+      <c r="J176" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
@@ -19700,6 +20297,9 @@
       <c r="I177" s="0" t="n">
         <v>938</v>
       </c>
+      <c r="J177" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
@@ -19730,6 +20330,9 @@
       <c r="I178" s="0" t="n">
         <v>705</v>
       </c>
+      <c r="J178" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
@@ -19760,6 +20363,9 @@
       <c r="I179" s="0" t="n">
         <v>941</v>
       </c>
+      <c r="J179" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
@@ -19790,6 +20396,9 @@
       <c r="I180" s="0" t="n">
         <v>943</v>
       </c>
+      <c r="J180" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
@@ -19820,6 +20429,9 @@
       <c r="I181" s="0" t="n">
         <v>682</v>
       </c>
+      <c r="J181" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
@@ -19850,6 +20462,9 @@
       <c r="I182" s="0" t="n">
         <v>946</v>
       </c>
+      <c r="J182" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
@@ -19880,6 +20495,9 @@
       <c r="I183" s="0" t="n">
         <v>491</v>
       </c>
+      <c r="J183" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
@@ -19910,6 +20528,9 @@
       <c r="I184" s="0" t="n">
         <v>649</v>
       </c>
+      <c r="J184" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
@@ -19940,6 +20561,9 @@
       <c r="I185" s="0" t="n">
         <v>702</v>
       </c>
+      <c r="J185" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
@@ -19970,6 +20594,9 @@
       <c r="I186" s="0" t="n">
         <v>629</v>
       </c>
+      <c r="J186" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
@@ -20000,6 +20627,9 @@
       <c r="I187" s="0" t="n">
         <v>954</v>
       </c>
+      <c r="J187" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
@@ -20030,6 +20660,9 @@
       <c r="I188" s="0" t="n">
         <v>765</v>
       </c>
+      <c r="J188" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
@@ -20060,6 +20693,9 @@
       <c r="I189" s="0" t="n">
         <v>959</v>
       </c>
+      <c r="J189" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
@@ -20090,6 +20726,9 @@
       <c r="I190" s="0" t="n">
         <v>960</v>
       </c>
+      <c r="J190" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
@@ -20120,6 +20759,9 @@
       <c r="I191" s="0" t="n">
         <v>556</v>
       </c>
+      <c r="J191" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
@@ -20150,6 +20792,9 @@
       <c r="I192" s="0" t="n">
         <v>35</v>
       </c>
+      <c r="J192" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
@@ -20180,6 +20825,9 @@
       <c r="I193" s="0" t="n">
         <v>968</v>
       </c>
+      <c r="J193" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
@@ -20210,6 +20858,9 @@
       <c r="I194" s="0" t="n">
         <v>970</v>
       </c>
+      <c r="J194" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
@@ -20240,6 +20891,9 @@
       <c r="I195" s="0" t="n">
         <v>68</v>
       </c>
+      <c r="J195" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
@@ -20270,6 +20924,9 @@
       <c r="I196" s="0" t="n">
         <v>522</v>
       </c>
+      <c r="J196" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
@@ -20300,6 +20957,9 @@
       <c r="I197" s="0" t="n">
         <v>798</v>
       </c>
+      <c r="J197" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
@@ -20330,6 +20990,9 @@
       <c r="I198" s="0" t="n">
         <v>976</v>
       </c>
+      <c r="J198" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
@@ -20360,6 +21023,9 @@
       <c r="I199" s="0" t="n">
         <v>738</v>
       </c>
+      <c r="J199" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
@@ -20390,6 +21056,9 @@
       <c r="I200" s="0" t="n">
         <v>839</v>
       </c>
+      <c r="J200" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
@@ -20420,19 +21089,22 @@
       <c r="I201" s="0" t="n">
         <v>568</v>
       </c>
+      <c r="J201" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
         <f aca="false">A201+1</f>
         <v>201</v>
       </c>
-      <c r="B202" s="2" t="n">
+      <c r="B202" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="C202" s="2" t="n">
+      <c r="C202" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" s="3" t="n">
         <v>65</v>
       </c>
       <c r="E202" s="0" t="n">
@@ -20449,6 +21121,9 @@
       </c>
       <c r="I202" s="0" t="n">
         <v>982</v>
+      </c>
+      <c r="J202" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20480,6 +21155,9 @@
       <c r="I203" s="0" t="n">
         <v>636</v>
       </c>
+      <c r="J203" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
@@ -20510,6 +21188,9 @@
       <c r="I204" s="0" t="n">
         <v>988</v>
       </c>
+      <c r="J204" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
@@ -20540,6 +21221,9 @@
       <c r="I205" s="0" t="n">
         <v>991</v>
       </c>
+      <c r="J205" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
@@ -20570,6 +21254,9 @@
       <c r="I206" s="0" t="n">
         <v>677</v>
       </c>
+      <c r="J206" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
@@ -20600,6 +21287,9 @@
       <c r="I207" s="0" t="n">
         <v>850</v>
       </c>
+      <c r="J207" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
@@ -20630,6 +21320,9 @@
       <c r="I208" s="0" t="n">
         <v>930</v>
       </c>
+      <c r="J208" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
@@ -20660,6 +21353,9 @@
       <c r="I209" s="0" t="n">
         <v>998</v>
       </c>
+      <c r="J209" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
@@ -20690,6 +21386,9 @@
       <c r="I210" s="0" t="n">
         <v>739</v>
       </c>
+      <c r="J210" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
@@ -20720,6 +21419,9 @@
       <c r="I211" s="0" t="n">
         <v>1002</v>
       </c>
+      <c r="J211" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
@@ -20750,6 +21452,9 @@
       <c r="I212" s="0" t="n">
         <v>1003</v>
       </c>
+      <c r="J212" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="n">
@@ -20780,6 +21485,9 @@
       <c r="I213" s="0" t="n">
         <v>1005</v>
       </c>
+      <c r="J213" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
@@ -20810,6 +21518,9 @@
       <c r="I214" s="0" t="n">
         <v>784</v>
       </c>
+      <c r="J214" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
@@ -20840,6 +21551,9 @@
       <c r="I215" s="0" t="n">
         <v>714</v>
       </c>
+      <c r="J215" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
@@ -20870,6 +21584,9 @@
       <c r="I216" s="0" t="n">
         <v>1008</v>
       </c>
+      <c r="J216" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
@@ -20900,6 +21617,9 @@
       <c r="I217" s="0" t="n">
         <v>509</v>
       </c>
+      <c r="J217" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="n">
@@ -20930,6 +21650,9 @@
       <c r="I218" s="0" t="n">
         <v>780</v>
       </c>
+      <c r="J218" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
@@ -20960,6 +21683,9 @@
       <c r="I219" s="0" t="n">
         <v>858</v>
       </c>
+      <c r="J219" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
@@ -20990,6 +21716,9 @@
       <c r="I220" s="0" t="n">
         <v>979</v>
       </c>
+      <c r="J220" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="n">
@@ -21020,6 +21749,9 @@
       <c r="I221" s="0" t="n">
         <v>1016</v>
       </c>
+      <c r="J221" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
@@ -21050,6 +21782,9 @@
       <c r="I222" s="0" t="n">
         <v>984</v>
       </c>
+      <c r="J222" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
@@ -21080,6 +21815,9 @@
       <c r="I223" s="0" t="n">
         <v>1017</v>
       </c>
+      <c r="J223" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
@@ -21110,6 +21848,9 @@
       <c r="I224" s="0" t="n">
         <v>1016</v>
       </c>
+      <c r="J224" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
@@ -21140,6 +21881,9 @@
       <c r="I225" s="0" t="n">
         <v>645</v>
       </c>
+      <c r="J225" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="n">
@@ -21170,6 +21914,9 @@
       <c r="I226" s="0" t="n">
         <v>77</v>
       </c>
+      <c r="J226" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="n">
@@ -21200,6 +21947,9 @@
       <c r="I227" s="0" t="n">
         <v>874</v>
       </c>
+      <c r="J227" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="n">
@@ -21230,6 +21980,9 @@
       <c r="I228" s="0" t="n">
         <v>668</v>
       </c>
+      <c r="J228" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="n">
@@ -21260,6 +22013,9 @@
       <c r="I229" s="0" t="n">
         <v>1024</v>
       </c>
+      <c r="J229" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="n">
@@ -21290,6 +22046,9 @@
       <c r="I230" s="0" t="n">
         <v>811</v>
       </c>
+      <c r="J230" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
@@ -21320,6 +22079,9 @@
       <c r="I231" s="0" t="n">
         <v>1027</v>
       </c>
+      <c r="J231" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
@@ -21350,6 +22112,9 @@
       <c r="I232" s="0" t="n">
         <v>944</v>
       </c>
+      <c r="J232" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
@@ -21380,6 +22145,9 @@
       <c r="I233" s="0" t="n">
         <v>1032</v>
       </c>
+      <c r="J233" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="n">
@@ -21410,6 +22178,9 @@
       <c r="I234" s="0" t="n">
         <v>1035</v>
       </c>
+      <c r="J234" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="n">
@@ -21440,6 +22211,9 @@
       <c r="I235" s="0" t="n">
         <v>1038</v>
       </c>
+      <c r="J235" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="n">
@@ -21470,6 +22244,9 @@
       <c r="I236" s="0" t="n">
         <v>514</v>
       </c>
+      <c r="J236" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
@@ -21500,6 +22277,9 @@
       <c r="I237" s="0" t="n">
         <v>591</v>
       </c>
+      <c r="J237" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="n">
@@ -21530,6 +22310,9 @@
       <c r="I238" s="0" t="n">
         <v>618</v>
       </c>
+      <c r="J238" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
@@ -21560,6 +22343,9 @@
       <c r="I239" s="0" t="n">
         <v>69</v>
       </c>
+      <c r="J239" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
@@ -21590,6 +22376,9 @@
       <c r="I240" s="0" t="n">
         <v>946</v>
       </c>
+      <c r="J240" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="n">
@@ -21620,6 +22409,9 @@
       <c r="I241" s="0" t="n">
         <v>37</v>
       </c>
+      <c r="J241" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
@@ -21650,6 +22442,9 @@
       <c r="I242" s="0" t="n">
         <v>914</v>
       </c>
+      <c r="J242" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
@@ -21680,6 +22475,9 @@
       <c r="I243" s="0" t="n">
         <v>532</v>
       </c>
+      <c r="J243" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
@@ -21710,6 +22508,9 @@
       <c r="I244" s="0" t="n">
         <v>945</v>
       </c>
+      <c r="J244" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
@@ -21740,6 +22541,9 @@
       <c r="I245" s="0" t="n">
         <v>931</v>
       </c>
+      <c r="J245" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="n">
@@ -21770,6 +22574,9 @@
       <c r="I246" s="0" t="n">
         <v>833</v>
       </c>
+      <c r="J246" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
@@ -21800,6 +22607,9 @@
       <c r="I247" s="0" t="n">
         <v>880</v>
       </c>
+      <c r="J247" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="n">
@@ -21830,6 +22640,9 @@
       <c r="I248" s="0" t="n">
         <v>577</v>
       </c>
+      <c r="J248" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="n">
@@ -21860,6 +22673,9 @@
       <c r="I249" s="0" t="n">
         <v>1004</v>
       </c>
+      <c r="J249" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="n">
@@ -21890,6 +22706,9 @@
       <c r="I250" s="0" t="n">
         <v>648</v>
       </c>
+      <c r="J250" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="n">
@@ -21920,6 +22739,9 @@
       <c r="I251" s="0" t="n">
         <v>1063</v>
       </c>
+      <c r="J251" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="n">
@@ -21950,6 +22772,9 @@
       <c r="I252" s="0" t="n">
         <v>750</v>
       </c>
+      <c r="J252" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="n">
@@ -21980,6 +22805,9 @@
       <c r="I253" s="0" t="n">
         <v>472</v>
       </c>
+      <c r="J253" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="n">
@@ -22010,6 +22838,9 @@
       <c r="I254" s="0" t="n">
         <v>1068</v>
       </c>
+      <c r="J254" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
@@ -22040,6 +22871,9 @@
       <c r="I255" s="0" t="n">
         <v>75</v>
       </c>
+      <c r="J255" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="n">
@@ -22070,6 +22904,9 @@
       <c r="I256" s="0" t="n">
         <v>1024</v>
       </c>
+      <c r="J256" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="n">
@@ -22100,6 +22937,9 @@
       <c r="I257" s="0" t="n">
         <v>1071</v>
       </c>
+      <c r="J257" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="n">
@@ -22130,6 +22970,9 @@
       <c r="I258" s="0" t="n">
         <v>911</v>
       </c>
+      <c r="J258" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="n">
@@ -22160,6 +23003,9 @@
       <c r="I259" s="0" t="n">
         <v>503</v>
       </c>
+      <c r="J259" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="n">
@@ -22190,6 +23036,9 @@
       <c r="I260" s="0" t="n">
         <v>701</v>
       </c>
+      <c r="J260" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="n">
@@ -22220,6 +23069,9 @@
       <c r="I261" s="0" t="n">
         <v>952</v>
       </c>
+      <c r="J261" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="n">
@@ -22250,6 +23102,9 @@
       <c r="I262" s="0" t="n">
         <v>1077</v>
       </c>
+      <c r="J262" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="n">
@@ -22280,6 +23135,9 @@
       <c r="I263" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="J263" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="n">
@@ -22310,6 +23168,9 @@
       <c r="I264" s="0" t="n">
         <v>1079</v>
       </c>
+      <c r="J264" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="n">
@@ -22340,6 +23201,9 @@
       <c r="I265" s="0" t="n">
         <v>685</v>
       </c>
+      <c r="J265" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="n">
@@ -22370,6 +23234,9 @@
       <c r="I266" s="0" t="n">
         <v>1081</v>
       </c>
+      <c r="J266" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="n">
@@ -22400,6 +23267,9 @@
       <c r="I267" s="0" t="n">
         <v>1084</v>
       </c>
+      <c r="J267" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="n">
@@ -22430,6 +23300,9 @@
       <c r="I268" s="0" t="n">
         <v>1087</v>
       </c>
+      <c r="J268" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="n">
@@ -22460,6 +23333,9 @@
       <c r="I269" s="0" t="n">
         <v>561</v>
       </c>
+      <c r="J269" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="n">
@@ -22490,6 +23366,9 @@
       <c r="I270" s="0" t="n">
         <v>1031</v>
       </c>
+      <c r="J270" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
@@ -22520,6 +23399,9 @@
       <c r="I271" s="0" t="n">
         <v>549</v>
       </c>
+      <c r="J271" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="n">
@@ -22550,6 +23432,9 @@
       <c r="I272" s="0" t="n">
         <v>915</v>
       </c>
+      <c r="J272" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="n">
@@ -22580,6 +23465,9 @@
       <c r="I273" s="0" t="n">
         <v>732</v>
       </c>
+      <c r="J273" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="n">
@@ -22610,6 +23498,9 @@
       <c r="I274" s="0" t="n">
         <v>654</v>
       </c>
+      <c r="J274" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="n">
@@ -22640,6 +23531,9 @@
       <c r="I275" s="0" t="n">
         <v>918</v>
       </c>
+      <c r="J275" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="n">
@@ -22670,6 +23564,9 @@
       <c r="I276" s="0" t="n">
         <v>960</v>
       </c>
+      <c r="J276" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="n">
@@ -22700,6 +23597,9 @@
       <c r="I277" s="0" t="n">
         <v>835</v>
       </c>
+      <c r="J277" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
@@ -22730,6 +23630,9 @@
       <c r="I278" s="0" t="n">
         <v>1028</v>
       </c>
+      <c r="J278" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="n">
@@ -22760,6 +23663,9 @@
       <c r="I279" s="0" t="n">
         <v>692</v>
       </c>
+      <c r="J279" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="n">
@@ -22790,6 +23696,9 @@
       <c r="I280" s="0" t="n">
         <v>699</v>
       </c>
+      <c r="J280" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="n">
@@ -22820,6 +23729,9 @@
       <c r="I281" s="0" t="n">
         <v>544</v>
       </c>
+      <c r="J281" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="n">
@@ -22850,6 +23762,9 @@
       <c r="I282" s="0" t="n">
         <v>933</v>
       </c>
+      <c r="J282" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="n">
@@ -22880,6 +23795,9 @@
       <c r="I283" s="0" t="n">
         <v>1069</v>
       </c>
+      <c r="J283" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="n">
@@ -22910,6 +23828,9 @@
       <c r="I284" s="0" t="n">
         <v>529</v>
       </c>
+      <c r="J284" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="n">
@@ -22940,6 +23861,9 @@
       <c r="I285" s="0" t="n">
         <v>658</v>
       </c>
+      <c r="J285" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="n">
@@ -22970,6 +23894,9 @@
       <c r="I286" s="0" t="n">
         <v>1107</v>
       </c>
+      <c r="J286" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="n">
@@ -23000,6 +23927,9 @@
       <c r="I287" s="0" t="n">
         <v>1109</v>
       </c>
+      <c r="J287" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
@@ -23030,6 +23960,9 @@
       <c r="I288" s="0" t="n">
         <v>1058</v>
       </c>
+      <c r="J288" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="n">
@@ -23060,6 +23993,9 @@
       <c r="I289" s="0" t="n">
         <v>885</v>
       </c>
+      <c r="J289" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="n">
@@ -23090,6 +24026,9 @@
       <c r="I290" s="0" t="n">
         <v>632</v>
       </c>
+      <c r="J290" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="n">
@@ -23120,6 +24059,9 @@
       <c r="I291" s="0" t="n">
         <v>628</v>
       </c>
+      <c r="J291" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="n">
@@ -23150,6 +24092,9 @@
       <c r="I292" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="J292" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="n">
@@ -23180,6 +24125,9 @@
       <c r="I293" s="0" t="n">
         <v>1048</v>
       </c>
+      <c r="J293" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="n">
@@ -23210,6 +24158,9 @@
       <c r="I294" s="0" t="n">
         <v>1091</v>
       </c>
+      <c r="J294" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="n">
@@ -23240,6 +24191,9 @@
       <c r="I295" s="0" t="n">
         <v>1042</v>
       </c>
+      <c r="J295" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="n">
@@ -23270,6 +24224,9 @@
       <c r="I296" s="0" t="n">
         <v>1070</v>
       </c>
+      <c r="J296" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
@@ -23300,6 +24257,9 @@
       <c r="I297" s="0" t="n">
         <v>859</v>
       </c>
+      <c r="J297" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="n">
@@ -23330,6 +24290,9 @@
       <c r="I298" s="0" t="n">
         <v>1001</v>
       </c>
+      <c r="J298" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="n">
@@ -23360,6 +24323,9 @@
       <c r="I299" s="0" t="n">
         <v>953</v>
       </c>
+      <c r="J299" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="n">
@@ -23390,6 +24356,9 @@
       <c r="I300" s="0" t="n">
         <v>488</v>
       </c>
+      <c r="J300" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="n">
@@ -23420,6 +24389,9 @@
       <c r="I301" s="0" t="n">
         <v>1076</v>
       </c>
+      <c r="J301" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="n">
@@ -23450,6 +24422,9 @@
       <c r="I302" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="J302" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="n">
@@ -23480,6 +24455,9 @@
       <c r="I303" s="0" t="n">
         <v>1026</v>
       </c>
+      <c r="J303" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="n">
@@ -23510,6 +24488,9 @@
       <c r="I304" s="0" t="n">
         <v>956</v>
       </c>
+      <c r="J304" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="n">
@@ -23540,6 +24521,9 @@
       <c r="I305" s="0" t="n">
         <v>1118</v>
       </c>
+      <c r="J305" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="n">
@@ -23570,6 +24554,9 @@
       <c r="I306" s="0" t="n">
         <v>1120</v>
       </c>
+      <c r="J306" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="n">
@@ -23600,6 +24587,9 @@
       <c r="I307" s="0" t="n">
         <v>728</v>
       </c>
+      <c r="J307" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="n">
@@ -23630,6 +24620,9 @@
       <c r="I308" s="0" t="n">
         <v>650</v>
       </c>
+      <c r="J308" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="n">
@@ -23660,19 +24653,22 @@
       <c r="I309" s="0" t="n">
         <v>125</v>
       </c>
+      <c r="J309" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="n">
         <f aca="false">A309+1</f>
         <v>309</v>
       </c>
-      <c r="B310" s="2" t="n">
+      <c r="B310" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="C310" s="2" t="n">
+      <c r="C310" s="3" t="n">
         <v>87</v>
       </c>
-      <c r="D310" s="2" t="n">
+      <c r="D310" s="3" t="n">
         <v>62</v>
       </c>
       <c r="E310" s="0" t="n">
@@ -23689,6 +24685,9 @@
       </c>
       <c r="I310" s="0" t="n">
         <v>1097</v>
+      </c>
+      <c r="J310" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23720,6 +24719,9 @@
       <c r="I311" s="0" t="n">
         <v>729</v>
       </c>
+      <c r="J311" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="n">
@@ -23750,6 +24752,9 @@
       <c r="I312" s="0" t="n">
         <v>1107</v>
       </c>
+      <c r="J312" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="n">
@@ -23780,6 +24785,9 @@
       <c r="I313" s="0" t="n">
         <v>1129</v>
       </c>
+      <c r="J313" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="n">
@@ -23810,6 +24818,9 @@
       <c r="I314" s="0" t="n">
         <v>474</v>
       </c>
+      <c r="J314" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="n">
@@ -23840,6 +24851,9 @@
       <c r="I315" s="0" t="n">
         <v>1056</v>
       </c>
+      <c r="J315" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="n">
@@ -23870,6 +24884,9 @@
       <c r="I316" s="0" t="n">
         <v>889</v>
       </c>
+      <c r="J316" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="n">
@@ -23900,6 +24917,9 @@
       <c r="I317" s="0" t="n">
         <v>1115</v>
       </c>
+      <c r="J317" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="n">
@@ -23930,6 +24950,9 @@
       <c r="I318" s="0" t="n">
         <v>1074</v>
       </c>
+      <c r="J318" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="n">
@@ -23960,6 +24983,9 @@
       <c r="I319" s="0" t="n">
         <v>1038</v>
       </c>
+      <c r="J319" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="n">
@@ -23990,6 +25016,9 @@
       <c r="I320" s="0" t="n">
         <v>1060</v>
       </c>
+      <c r="J320" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="n">
@@ -24020,6 +25049,9 @@
       <c r="I321" s="0" t="n">
         <v>756</v>
       </c>
+      <c r="J321" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="n">
@@ -24050,6 +25082,9 @@
       <c r="I322" s="0" t="n">
         <v>1014</v>
       </c>
+      <c r="J322" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="n">
@@ -24080,6 +25115,9 @@
       <c r="I323" s="0" t="n">
         <v>1138</v>
       </c>
+      <c r="J323" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="n">
@@ -24110,6 +25148,9 @@
       <c r="I324" s="0" t="n">
         <v>820</v>
       </c>
+      <c r="J324" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="n">
@@ -24140,6 +25181,9 @@
       <c r="I325" s="0" t="n">
         <v>741</v>
       </c>
+      <c r="J325" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="n">
@@ -24170,6 +25214,9 @@
       <c r="I326" s="0" t="n">
         <v>517</v>
       </c>
+      <c r="J326" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="n">
@@ -24200,6 +25247,9 @@
       <c r="I327" s="0" t="n">
         <v>1132</v>
       </c>
+      <c r="J327" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="n">
@@ -24230,6 +25280,9 @@
       <c r="I328" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="J328" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="n">
@@ -24260,6 +25313,9 @@
       <c r="I329" s="0" t="n">
         <v>734</v>
       </c>
+      <c r="J329" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="n">
@@ -24290,6 +25346,9 @@
       <c r="I330" s="0" t="n">
         <v>1124</v>
       </c>
+      <c r="J330" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="n">
@@ -24320,6 +25379,9 @@
       <c r="I331" s="0" t="n">
         <v>998</v>
       </c>
+      <c r="J331" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="n">
@@ -24350,6 +25412,9 @@
       <c r="I332" s="0" t="n">
         <v>533</v>
       </c>
+      <c r="J332" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="n">
@@ -24380,6 +25445,9 @@
       <c r="I333" s="0" t="n">
         <v>547</v>
       </c>
+      <c r="J333" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="n">
@@ -24410,6 +25478,9 @@
       <c r="I334" s="0" t="n">
         <v>1140</v>
       </c>
+      <c r="J334" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="n">
@@ -24440,6 +25511,9 @@
       <c r="I335" s="0" t="n">
         <v>1084</v>
       </c>
+      <c r="J335" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="n">
@@ -24470,6 +25544,9 @@
       <c r="I336" s="0" t="n">
         <v>772</v>
       </c>
+      <c r="J336" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="n">
@@ -24500,6 +25577,9 @@
       <c r="I337" s="0" t="n">
         <v>992</v>
       </c>
+      <c r="J337" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="n">
@@ -24530,6 +25610,9 @@
       <c r="I338" s="0" t="n">
         <v>1021</v>
       </c>
+      <c r="J338" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="n">
@@ -24560,6 +25643,9 @@
       <c r="I339" s="0" t="n">
         <v>1139</v>
       </c>
+      <c r="J339" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="n">
@@ -24590,6 +25676,9 @@
       <c r="I340" s="0" t="n">
         <v>843</v>
       </c>
+      <c r="J340" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="n">
@@ -24620,6 +25709,9 @@
       <c r="I341" s="0" t="n">
         <v>1109</v>
       </c>
+      <c r="J341" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="n">
@@ -24650,6 +25742,9 @@
       <c r="I342" s="0" t="n">
         <v>907</v>
       </c>
+      <c r="J342" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="n">
@@ -24680,6 +25775,9 @@
       <c r="I343" s="0" t="n">
         <v>848</v>
       </c>
+      <c r="J343" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="n">
@@ -24710,6 +25808,9 @@
       <c r="I344" s="0" t="n">
         <v>800</v>
       </c>
+      <c r="J344" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="n">
@@ -24740,6 +25841,9 @@
       <c r="I345" s="0" t="n">
         <v>808</v>
       </c>
+      <c r="J345" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="n">
@@ -24770,6 +25874,9 @@
       <c r="I346" s="0" t="n">
         <v>822</v>
       </c>
+      <c r="J346" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="n">
@@ -24800,6 +25907,9 @@
       <c r="I347" s="0" t="n">
         <v>1138</v>
       </c>
+      <c r="J347" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="n">
@@ -24830,6 +25940,9 @@
       <c r="I348" s="0" t="n">
         <v>926</v>
       </c>
+      <c r="J348" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="n">
@@ -24860,6 +25973,9 @@
       <c r="I349" s="0" t="n">
         <v>1112</v>
       </c>
+      <c r="J349" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="n">
@@ -24890,6 +26006,9 @@
       <c r="I350" s="0" t="n">
         <v>583</v>
       </c>
+      <c r="J350" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="n">
@@ -24920,6 +26039,9 @@
       <c r="I351" s="0" t="n">
         <v>775</v>
       </c>
+      <c r="J351" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="n">
@@ -24950,19 +26072,22 @@
       <c r="I352" s="0" t="n">
         <v>120</v>
       </c>
+      <c r="J352" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="n">
         <f aca="false">A352+1</f>
         <v>352</v>
       </c>
-      <c r="B353" s="2" t="n">
+      <c r="B353" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="C353" s="2" t="n">
+      <c r="C353" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="D353" s="2" t="n">
+      <c r="D353" s="3" t="n">
         <v>67</v>
       </c>
       <c r="E353" s="0" t="n">
@@ -24979,6 +26104,9 @@
       </c>
       <c r="I353" s="0" t="n">
         <v>846</v>
+      </c>
+      <c r="J353" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25010,6 +26138,9 @@
       <c r="I354" s="0" t="n">
         <v>1150</v>
       </c>
+      <c r="J354" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="n">
@@ -25040,6 +26171,9 @@
       <c r="I355" s="0" t="n">
         <v>864</v>
       </c>
+      <c r="J355" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="n">
@@ -25070,6 +26204,9 @@
       <c r="I356" s="0" t="n">
         <v>1145</v>
       </c>
+      <c r="J356" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="n">
@@ -25100,6 +26237,9 @@
       <c r="I357" s="0" t="n">
         <v>743</v>
       </c>
+      <c r="J357" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="n">
@@ -25130,6 +26270,9 @@
       <c r="I358" s="0" t="n">
         <v>1146</v>
       </c>
+      <c r="J358" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="n">
@@ -25160,6 +26303,9 @@
       <c r="I359" s="0" t="n">
         <v>1152</v>
       </c>
+      <c r="J359" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="n">
@@ -25190,6 +26336,9 @@
       <c r="I360" s="0" t="n">
         <v>881</v>
       </c>
+      <c r="J360" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="n">
@@ -25219,6 +26368,9 @@
       </c>
       <c r="I361" s="0" t="n">
         <v>1007</v>
+      </c>
+      <c r="J361" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -25239,14 +26391,14 @@
   </sheetPr>
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F63" activeCellId="0" sqref="F63"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2704081632653"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5816326530612"/>
   </cols>
   <sheetData>
@@ -25254,1275 +26406,1275 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="n">
+      <c r="B13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="n">
+      <c r="C43" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="n">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B45" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="B46" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="B47" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="B48" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="B49" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B50" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="n">
+      <c r="B51" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="n">
+      <c r="B52" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="n">
+      <c r="B53" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="n">
+      <c r="B54" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="n">
+      <c r="B55" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="n">
+      <c r="B56" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="n">
+      <c r="B57" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="n">
+      <c r="B58" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="n">
+      <c r="B59" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="n">
+      <c r="B60" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="n">
+      <c r="B61" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="n">
+      <c r="B62" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="n">
+      <c r="B63" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="n">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="n">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="n">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="n">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B67" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="n">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B68" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="n">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="n">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="B70" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="n">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B71" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="n">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B72" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="n">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="B73" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="n">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="B74" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="n">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="n">
+        <v>103</v>
+      </c>
+      <c r="B75" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="n">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="B76" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="n">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="B77" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="n">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="n">
+        <v>106</v>
+      </c>
+      <c r="B78" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="n">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="n">
+        <v>107</v>
+      </c>
+      <c r="B79" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="n">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="n">
+        <v>108</v>
+      </c>
+      <c r="B80" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="n">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="n">
+        <v>109</v>
+      </c>
+      <c r="B81" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="n">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="B82" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C43" s="4" t="n">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="n">
+        <v>111</v>
+      </c>
+      <c r="B83" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B44" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C44" s="4" t="n">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="B84" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B45" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" s="4" t="n">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="n">
+        <v>113</v>
+      </c>
+      <c r="B85" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B46" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C46" s="4" t="n">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="n">
+        <v>114</v>
+      </c>
+      <c r="B86" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B47" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C47" s="4" t="n">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="B87" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B48" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C48" s="4" t="n">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="n">
+        <v>116</v>
+      </c>
+      <c r="B88" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B49" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C49" s="4" t="n">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="n">
+        <v>117</v>
+      </c>
+      <c r="B89" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B50" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C50" s="4" t="n">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="n">
+        <v>118</v>
+      </c>
+      <c r="B90" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B51" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" s="4" t="n">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="n">
+        <v>119</v>
+      </c>
+      <c r="B91" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B52" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C52" s="4" t="n">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="B92" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B53" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C53" s="4" t="n">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="6" t="n">
+        <v>121</v>
+      </c>
+      <c r="B93" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="B54" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C54" s="4" t="n">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="n">
+        <v>122</v>
+      </c>
+      <c r="B94" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B55" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C55" s="4" t="n">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="n">
+        <v>123</v>
+      </c>
+      <c r="B95" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="B56" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C56" s="4" t="n">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6" t="n">
+        <v>124</v>
+      </c>
+      <c r="B96" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="B57" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C57" s="4" t="n">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="B97" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="B58" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C58" s="4" t="n">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6" t="n">
+        <v>126</v>
+      </c>
+      <c r="B98" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="B59" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C59" s="4" t="n">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="n">
+        <v>127</v>
+      </c>
+      <c r="B99" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B60" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C60" s="4" t="n">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="B100" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="B61" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C61" s="4" t="n">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="n">
+        <v>129</v>
+      </c>
+      <c r="B101" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="B62" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C62" s="4" t="n">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="n">
+        <v>130</v>
+      </c>
+      <c r="B102" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="B63" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C63" s="4" t="n">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="n">
+        <v>131</v>
+      </c>
+      <c r="B103" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B64" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" s="5" t="n">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="n">
+        <v>132</v>
+      </c>
+      <c r="B104" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B65" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" s="5" t="n">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="n">
+        <v>133</v>
+      </c>
+      <c r="B105" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="n">
-        <v>94</v>
-      </c>
-      <c r="B66" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" s="5" t="n">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6" t="n">
+        <v>134</v>
+      </c>
+      <c r="B106" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="n">
-        <v>95</v>
-      </c>
-      <c r="B67" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" s="5" t="n">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="n">
+        <v>135</v>
+      </c>
+      <c r="B107" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="B68" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" s="5" t="n">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6" t="n">
+        <v>136</v>
+      </c>
+      <c r="B108" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="n">
-        <v>97</v>
-      </c>
-      <c r="B69" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" s="5" t="n">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6" t="n">
+        <v>137</v>
+      </c>
+      <c r="B109" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="n">
-        <v>98</v>
-      </c>
-      <c r="B70" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" s="5" t="n">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6" t="n">
+        <v>138</v>
+      </c>
+      <c r="B110" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="n">
-        <v>99</v>
-      </c>
-      <c r="B71" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" s="5" t="n">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6" t="n">
+        <v>139</v>
+      </c>
+      <c r="B111" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="B72" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" s="5" t="n">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="6" t="n">
+        <v>140</v>
+      </c>
+      <c r="B112" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="n">
-        <v>101</v>
-      </c>
-      <c r="B73" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" s="5" t="n">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="n">
+        <v>141</v>
+      </c>
+      <c r="B113" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="n">
-        <v>102</v>
-      </c>
-      <c r="B74" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" s="5" t="n">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="n">
+        <v>142</v>
+      </c>
+      <c r="B114" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="B75" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" s="5" t="n">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="6" t="n">
+        <v>143</v>
+      </c>
+      <c r="B115" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="n">
-        <v>104</v>
-      </c>
-      <c r="B76" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C76" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="n">
-        <v>105</v>
-      </c>
-      <c r="B77" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C77" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="n">
-        <v>106</v>
-      </c>
-      <c r="B78" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="n">
-        <v>107</v>
-      </c>
-      <c r="B79" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="n">
-        <v>108</v>
-      </c>
-      <c r="B80" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="n">
-        <v>109</v>
-      </c>
-      <c r="B81" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C81" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="n">
-        <v>110</v>
-      </c>
-      <c r="B82" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="n">
-        <v>111</v>
-      </c>
-      <c r="B83" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="n">
-        <v>112</v>
-      </c>
-      <c r="B84" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="n">
-        <v>113</v>
-      </c>
-      <c r="B85" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C85" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="n">
-        <v>114</v>
-      </c>
-      <c r="B86" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="n">
-        <v>115</v>
-      </c>
-      <c r="B87" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="n">
-        <v>116</v>
-      </c>
-      <c r="B88" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="n">
-        <v>117</v>
-      </c>
-      <c r="B89" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="n">
-        <v>118</v>
-      </c>
-      <c r="B90" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="n">
-        <v>119</v>
-      </c>
-      <c r="B91" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="n">
-        <v>120</v>
-      </c>
-      <c r="B92" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="n">
-        <v>121</v>
-      </c>
-      <c r="B93" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="n">
-        <v>122</v>
-      </c>
-      <c r="B94" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="n">
-        <v>123</v>
-      </c>
-      <c r="B95" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C95" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="n">
-        <v>124</v>
-      </c>
-      <c r="B96" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C96" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="n">
-        <v>125</v>
-      </c>
-      <c r="B97" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C97" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="n">
-        <v>126</v>
-      </c>
-      <c r="B98" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="n">
-        <v>127</v>
-      </c>
-      <c r="B99" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C99" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="n">
-        <v>128</v>
-      </c>
-      <c r="B100" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C100" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5" t="n">
-        <v>129</v>
-      </c>
-      <c r="B101" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="n">
-        <v>130</v>
-      </c>
-      <c r="B102" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C102" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="n">
-        <v>131</v>
-      </c>
-      <c r="B103" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C103" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="n">
-        <v>132</v>
-      </c>
-      <c r="B104" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="n">
-        <v>133</v>
-      </c>
-      <c r="B105" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C105" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="n">
-        <v>134</v>
-      </c>
-      <c r="B106" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="n">
-        <v>135</v>
-      </c>
-      <c r="B107" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C107" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5" t="n">
-        <v>136</v>
-      </c>
-      <c r="B108" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C108" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5" t="n">
-        <v>137</v>
-      </c>
-      <c r="B109" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C109" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="5" t="n">
-        <v>138</v>
-      </c>
-      <c r="B110" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C110" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="5" t="n">
-        <v>139</v>
-      </c>
-      <c r="B111" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C111" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5" t="n">
-        <v>140</v>
-      </c>
-      <c r="B112" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C112" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="5" t="n">
-        <v>141</v>
-      </c>
-      <c r="B113" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C113" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5" t="n">
-        <v>142</v>
-      </c>
-      <c r="B114" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C114" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="5" t="n">
-        <v>143</v>
-      </c>
-      <c r="B115" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C115" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="5" t="n">
+      <c r="A116" s="6" t="n">
         <v>144</v>
       </c>
-      <c r="B116" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C116" s="5" t="n">
+      <c r="B116" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26545,7 +27697,7 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -26556,28 +27708,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26800,11 +27952,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26831,6 +27983,63 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
